--- a/data/pca/factorExposure/factorExposure_2013-05-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001655642517421039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001907244491341029</v>
+      </c>
+      <c r="C2">
+        <v>-0.03305072494194089</v>
+      </c>
+      <c r="D2">
+        <v>0.00301907026359237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001982746300309855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005826482004881599</v>
+      </c>
+      <c r="C4">
+        <v>-0.08343828857404943</v>
+      </c>
+      <c r="D4">
+        <v>0.08056833248374011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004422048671467433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01305018735097948</v>
+      </c>
+      <c r="C6">
+        <v>-0.1079335079779932</v>
+      </c>
+      <c r="D6">
+        <v>0.03472825168568886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001390667116044042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00479549345339837</v>
+      </c>
+      <c r="C7">
+        <v>-0.05193177896759259</v>
+      </c>
+      <c r="D7">
+        <v>0.03796959821645482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001612732159516673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005605212516386092</v>
+      </c>
+      <c r="C8">
+        <v>-0.03687697902772115</v>
+      </c>
+      <c r="D8">
+        <v>0.04011323611531321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005038540929943075</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003851083555197382</v>
+      </c>
+      <c r="C9">
+        <v>-0.06831584056492379</v>
+      </c>
+      <c r="D9">
+        <v>0.06991547760351066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004069415731351886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005694492378021434</v>
+      </c>
+      <c r="C10">
+        <v>-0.07649378481632213</v>
+      </c>
+      <c r="D10">
+        <v>-0.2089699853384657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005072043678647238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004873830079805365</v>
+      </c>
+      <c r="C11">
+        <v>-0.07742333401498332</v>
+      </c>
+      <c r="D11">
+        <v>0.06583349919968162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000872310736175462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003600324510376428</v>
+      </c>
+      <c r="C12">
+        <v>-0.06234764667987849</v>
+      </c>
+      <c r="D12">
+        <v>0.04721891849228573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003472811737799162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00856177220473358</v>
+      </c>
+      <c r="C13">
+        <v>-0.06884447748851465</v>
+      </c>
+      <c r="D13">
+        <v>0.0700735671124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003226063835335318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001537890539613127</v>
+      </c>
+      <c r="C14">
+        <v>-0.04579535825262179</v>
+      </c>
+      <c r="D14">
+        <v>0.01472858033267897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002988317538790674</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005535616462417586</v>
+      </c>
+      <c r="C15">
+        <v>-0.03731319820470368</v>
+      </c>
+      <c r="D15">
+        <v>0.04057477787705445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002734686808112308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004703913499724462</v>
+      </c>
+      <c r="C16">
+        <v>-0.06371455025713446</v>
+      </c>
+      <c r="D16">
+        <v>0.0507961266345651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.00121924279645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008850259114346998</v>
+      </c>
+      <c r="C20">
+        <v>-0.06405656924677142</v>
+      </c>
+      <c r="D20">
+        <v>0.05769468350028147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004803377476469902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009891300643090408</v>
+      </c>
+      <c r="C21">
+        <v>-0.02256262083907453</v>
+      </c>
+      <c r="D21">
+        <v>0.03805203531593155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01687243621215536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007199148452309611</v>
+      </c>
+      <c r="C22">
+        <v>-0.09086285281011328</v>
+      </c>
+      <c r="D22">
+        <v>0.0995591653474759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01717927366542047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006990246691526972</v>
+      </c>
+      <c r="C23">
+        <v>-0.09192724768455217</v>
+      </c>
+      <c r="D23">
+        <v>0.1001756698442216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003651932183691839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004502317894692423</v>
+      </c>
+      <c r="C24">
+        <v>-0.07192422285956367</v>
+      </c>
+      <c r="D24">
+        <v>0.06051187568965877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005245635332052133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002547161003821446</v>
+      </c>
+      <c r="C25">
+        <v>-0.07665012780745378</v>
+      </c>
+      <c r="D25">
+        <v>0.06570323957720066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006152774818267849</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003530141360332618</v>
+      </c>
+      <c r="C26">
+        <v>-0.04071842351107012</v>
+      </c>
+      <c r="D26">
+        <v>0.02830685884610582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005594502806161425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006141159290027077</v>
+      </c>
+      <c r="C28">
+        <v>-0.1278990598636622</v>
+      </c>
+      <c r="D28">
+        <v>-0.3068141001789801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002396169365478043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003219344358304301</v>
+      </c>
+      <c r="C29">
+        <v>-0.04797387089732127</v>
+      </c>
+      <c r="D29">
+        <v>0.01725957632775959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005249630242603161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008430388365181753</v>
+      </c>
+      <c r="C30">
+        <v>-0.1358111888644308</v>
+      </c>
+      <c r="D30">
+        <v>0.1078722194698819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001068661360523875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.005981748106107287</v>
+      </c>
+      <c r="C31">
+        <v>-0.04473306972884532</v>
+      </c>
+      <c r="D31">
+        <v>0.03556442286105785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001810956904926874</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003860605235238278</v>
+      </c>
+      <c r="C32">
+        <v>-0.03974315679622895</v>
+      </c>
+      <c r="D32">
+        <v>0.01341565846819211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003172650565598018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007460158051043587</v>
+      </c>
+      <c r="C33">
+        <v>-0.0814996363762563</v>
+      </c>
+      <c r="D33">
+        <v>0.0778893770024438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005313097907830315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003471767316460012</v>
+      </c>
+      <c r="C34">
+        <v>-0.05633312574144794</v>
+      </c>
+      <c r="D34">
+        <v>0.0459709549944478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003565611731687483</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004699147523557044</v>
+      </c>
+      <c r="C35">
+        <v>-0.03795991837205002</v>
+      </c>
+      <c r="D35">
+        <v>0.0134157801177975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004557863356514856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001430329823739039</v>
+      </c>
+      <c r="C36">
+        <v>-0.02312694294410845</v>
+      </c>
+      <c r="D36">
+        <v>0.02270553369958572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00240706044350502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009517586692519326</v>
+      </c>
+      <c r="C38">
+        <v>-0.03326937723748231</v>
+      </c>
+      <c r="D38">
+        <v>0.02890667047787075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01409862371527064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001240933196272253</v>
+      </c>
+      <c r="C39">
+        <v>-0.1145286698830865</v>
+      </c>
+      <c r="D39">
+        <v>0.08158503178017808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008016763858820889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002064837926981655</v>
+      </c>
+      <c r="C40">
+        <v>-0.0859834135904749</v>
+      </c>
+      <c r="D40">
+        <v>0.02657914490471863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001510737966298906</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007223059222455962</v>
+      </c>
+      <c r="C41">
+        <v>-0.03820738679331302</v>
+      </c>
+      <c r="D41">
+        <v>0.03695424030723016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003228225213777309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003083941737577733</v>
+      </c>
+      <c r="C43">
+        <v>-0.04947950943108695</v>
+      </c>
+      <c r="D43">
+        <v>0.02926971268475516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005033284415655551</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003409339783105807</v>
+      </c>
+      <c r="C44">
+        <v>-0.10688727224258</v>
+      </c>
+      <c r="D44">
+        <v>0.08528010194424937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002572343512089649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002379485651169026</v>
+      </c>
+      <c r="C46">
+        <v>-0.03466670542681703</v>
+      </c>
+      <c r="D46">
+        <v>0.03537031427014972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001466909273404198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002794731988888573</v>
+      </c>
+      <c r="C47">
+        <v>-0.0390299104206847</v>
+      </c>
+      <c r="D47">
+        <v>0.02959611597012498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003980722832744489</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00646393587751952</v>
+      </c>
+      <c r="C48">
+        <v>-0.0288913541824459</v>
+      </c>
+      <c r="D48">
+        <v>0.03161523520928889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01451746589400556</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01360399793131836</v>
+      </c>
+      <c r="C49">
+        <v>-0.1710516868412044</v>
+      </c>
+      <c r="D49">
+        <v>0.03520771573168135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004234482617094368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003481067489283969</v>
+      </c>
+      <c r="C50">
+        <v>-0.04105749431713356</v>
+      </c>
+      <c r="D50">
+        <v>0.04026130455349735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001842808015939127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.003990175425777035</v>
+      </c>
+      <c r="C51">
+        <v>-0.01959126423061106</v>
+      </c>
+      <c r="D51">
+        <v>0.03307592160836181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008507113504295181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02004355058730346</v>
+      </c>
+      <c r="C53">
+        <v>-0.1648624579643439</v>
+      </c>
+      <c r="D53">
+        <v>0.05390929127179693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.000145101067103849</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008272165898209878</v>
+      </c>
+      <c r="C54">
+        <v>-0.05460683477970336</v>
+      </c>
+      <c r="D54">
+        <v>0.04276373520482959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005046413239947424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009184298002580506</v>
+      </c>
+      <c r="C55">
+        <v>-0.105020368159537</v>
+      </c>
+      <c r="D55">
+        <v>0.05354998985554866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002636796602636935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01920658536502924</v>
+      </c>
+      <c r="C56">
+        <v>-0.1715811522292563</v>
+      </c>
+      <c r="D56">
+        <v>0.05018734691545114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008067346956267782</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01919524018465369</v>
+      </c>
+      <c r="C58">
+        <v>-0.1004641624827035</v>
+      </c>
+      <c r="D58">
+        <v>0.07946314601758261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008310134795814529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009162621272544259</v>
+      </c>
+      <c r="C59">
+        <v>-0.1704489176252069</v>
+      </c>
+      <c r="D59">
+        <v>-0.2771976120689177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006780448788524141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02276300414439725</v>
+      </c>
+      <c r="C60">
+        <v>-0.2209422614577425</v>
+      </c>
+      <c r="D60">
+        <v>0.02933794642609431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01571215196177239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002239550859704267</v>
+      </c>
+      <c r="C61">
+        <v>-0.09412492555809747</v>
+      </c>
+      <c r="D61">
+        <v>0.06189790433276793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1824296986956863</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.14335505800468</v>
+      </c>
+      <c r="C62">
+        <v>-0.07577849086894597</v>
+      </c>
+      <c r="D62">
+        <v>0.05395496803890472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002238096326241981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006351716081580885</v>
+      </c>
+      <c r="C63">
+        <v>-0.05903004548486907</v>
+      </c>
+      <c r="D63">
+        <v>0.02586178320832106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007785077215331692</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01447659323277143</v>
+      </c>
+      <c r="C64">
+        <v>-0.1022852011073073</v>
+      </c>
+      <c r="D64">
+        <v>0.06467351398946768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-1.166793223538166e-07</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01671696327879049</v>
+      </c>
+      <c r="C65">
+        <v>-0.1140347227699161</v>
+      </c>
+      <c r="D65">
+        <v>0.0297285750782176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01009210071469032</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01182444974088776</v>
+      </c>
+      <c r="C66">
+        <v>-0.1527588683096982</v>
+      </c>
+      <c r="D66">
+        <v>0.1192568567838444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002329721009630716</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01552849748026115</v>
+      </c>
+      <c r="C67">
+        <v>-0.06261098891499962</v>
+      </c>
+      <c r="D67">
+        <v>0.03957042824765199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007766054032854784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00132928710857172</v>
+      </c>
+      <c r="C68">
+        <v>-0.1116917587463659</v>
+      </c>
+      <c r="D68">
+        <v>-0.2624353770557155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.004070797278771565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00555349349956106</v>
+      </c>
+      <c r="C69">
+        <v>-0.04587171732820389</v>
+      </c>
+      <c r="D69">
+        <v>0.04526141832706488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001676429446378425</v>
+      </c>
+      <c r="C70">
+        <v>-0.001465181890538749</v>
+      </c>
+      <c r="D70">
+        <v>0.001954139672243812</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003627400191141157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006073107471319528</v>
+      </c>
+      <c r="C71">
+        <v>-0.1143035854417785</v>
+      </c>
+      <c r="D71">
+        <v>-0.2831741940139613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00912007033727464</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01497912460476845</v>
+      </c>
+      <c r="C72">
+        <v>-0.1499306330839847</v>
+      </c>
+      <c r="D72">
+        <v>0.0273510866203898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01379286904972364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02915570395450702</v>
+      </c>
+      <c r="C73">
+        <v>-0.2827872769892643</v>
+      </c>
+      <c r="D73">
+        <v>0.05353965848515604</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004857410063726727</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001343530368619745</v>
+      </c>
+      <c r="C74">
+        <v>-0.1040875519841905</v>
+      </c>
+      <c r="D74">
+        <v>0.04412646184751171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006979998613135536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0104207210521365</v>
+      </c>
+      <c r="C75">
+        <v>-0.1308750336546131</v>
+      </c>
+      <c r="D75">
+        <v>0.04156436300289225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01119398189484886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02100616907427125</v>
+      </c>
+      <c r="C76">
+        <v>-0.1446177819781447</v>
+      </c>
+      <c r="D76">
+        <v>0.07525072899905419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003355346652978953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02384534694136429</v>
+      </c>
+      <c r="C77">
+        <v>-0.1314486998893289</v>
+      </c>
+      <c r="D77">
+        <v>0.06526369876292097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003873914344013277</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01385358990967269</v>
+      </c>
+      <c r="C78">
+        <v>-0.09062078673527145</v>
+      </c>
+      <c r="D78">
+        <v>0.0670778911831425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02706513055951952</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03654969363371553</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561772323807814</v>
+      </c>
+      <c r="D79">
+        <v>0.0347148508663748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004793738543185416</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01049360783241063</v>
+      </c>
+      <c r="C80">
+        <v>-0.04100344211612827</v>
+      </c>
+      <c r="D80">
+        <v>0.03478601606067613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003809265346617497</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01425638555216242</v>
+      </c>
+      <c r="C81">
+        <v>-0.1201289062680561</v>
+      </c>
+      <c r="D81">
+        <v>0.05737422526393029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005963918108037276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01947887571812673</v>
+      </c>
+      <c r="C82">
+        <v>-0.141790806407018</v>
+      </c>
+      <c r="D82">
+        <v>0.0493994572149891</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006283429830560233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009566011599033197</v>
+      </c>
+      <c r="C83">
+        <v>-0.05569336646203312</v>
+      </c>
+      <c r="D83">
+        <v>0.05127217744822631</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01519890062154584</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0115598148046791</v>
+      </c>
+      <c r="C84">
+        <v>-0.03039496865588539</v>
+      </c>
+      <c r="D84">
+        <v>0.001185332987768941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01555571836100362</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02771594439084985</v>
+      </c>
+      <c r="C85">
+        <v>-0.1281884730290864</v>
+      </c>
+      <c r="D85">
+        <v>0.05409967393598376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00385442776458098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005307972029364364</v>
+      </c>
+      <c r="C86">
+        <v>-0.04797403169121205</v>
+      </c>
+      <c r="D86">
+        <v>0.02682539075771491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008178057430656221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009678014167569993</v>
+      </c>
+      <c r="C87">
+        <v>-0.1264812307065713</v>
+      </c>
+      <c r="D87">
+        <v>0.08264595391557336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01485640951725701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003112166968827673</v>
+      </c>
+      <c r="C88">
+        <v>-0.06875487068398085</v>
+      </c>
+      <c r="D88">
+        <v>0.02014250090612403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01615853340410859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001263632026955238</v>
+      </c>
+      <c r="C89">
+        <v>-0.1659287144539787</v>
+      </c>
+      <c r="D89">
+        <v>-0.3442801919338147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004066374690802864</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007149015564182407</v>
+      </c>
+      <c r="C90">
+        <v>-0.144328439245327</v>
+      </c>
+      <c r="D90">
+        <v>-0.3175912962711404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001396657077793931</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01007822249989677</v>
+      </c>
+      <c r="C91">
+        <v>-0.1033307468173516</v>
+      </c>
+      <c r="D91">
+        <v>0.02285149023017368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01499989865279187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0002578186268675942</v>
+      </c>
+      <c r="C92">
+        <v>-0.1542980555478276</v>
+      </c>
+      <c r="D92">
+        <v>-0.3262584344255154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002270100764996694</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005084611856434286</v>
+      </c>
+      <c r="C93">
+        <v>-0.125931356367787</v>
+      </c>
+      <c r="D93">
+        <v>-0.309053231857487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003132953667681125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02184196252930954</v>
+      </c>
+      <c r="C94">
+        <v>-0.1569232715838801</v>
+      </c>
+      <c r="D94">
+        <v>0.03584581160573139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00545511278901557</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0156560677159069</v>
+      </c>
+      <c r="C95">
+        <v>-0.1235888032887621</v>
+      </c>
+      <c r="D95">
+        <v>0.0706284069388208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002839836808489459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03444143833231257</v>
+      </c>
+      <c r="C97">
+        <v>-0.1769804073021185</v>
+      </c>
+      <c r="D97">
+        <v>0.04402070851614542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007178690435412464</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03519884599297484</v>
+      </c>
+      <c r="C98">
+        <v>-0.2560254809860303</v>
+      </c>
+      <c r="D98">
+        <v>0.041479251976518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9807182428721201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982973158811408</v>
+      </c>
+      <c r="C99">
+        <v>0.107131528190217</v>
+      </c>
+      <c r="D99">
+        <v>-0.03317869711367003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002353867981646859</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003259157950435105</v>
+      </c>
+      <c r="C101">
+        <v>-0.04798077768057363</v>
+      </c>
+      <c r="D101">
+        <v>0.01763621021082393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
